--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Guca2b-Gucy2c.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Guca2b-Gucy2c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Guca2b</t>
+  </si>
+  <si>
+    <t>Gucy2c</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Guca2b</t>
-  </si>
-  <si>
-    <t>Gucy2c</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1241823333333333</v>
+        <v>0.103181</v>
       </c>
       <c r="H2">
-        <v>0.372547</v>
+        <v>0.206362</v>
       </c>
       <c r="I2">
-        <v>0.6892241148056264</v>
+        <v>0.3503744070920869</v>
       </c>
       <c r="J2">
-        <v>0.6892241148056263</v>
+        <v>0.2893636473263989</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.05747633333333333</v>
+        <v>0.3282236666666666</v>
       </c>
       <c r="N2">
-        <v>0.172429</v>
+        <v>0.984671</v>
       </c>
       <c r="O2">
-        <v>0.1219372312740439</v>
+        <v>0.1589343097904449</v>
       </c>
       <c r="P2">
-        <v>0.1219372312740439</v>
+        <v>0.1589343097904449</v>
       </c>
       <c r="Q2">
-        <v>0.007137545184777777</v>
+        <v>0.03386644615033333</v>
       </c>
       <c r="R2">
-        <v>0.064237906663</v>
+        <v>0.203198676902</v>
       </c>
       <c r="S2">
-        <v>0.08404208028670183</v>
+        <v>0.05568651455941721</v>
       </c>
       <c r="T2">
-        <v>0.08404208028670183</v>
+        <v>0.04598981156626693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1241823333333333</v>
+        <v>0.103181</v>
       </c>
       <c r="H3">
-        <v>0.372547</v>
+        <v>0.206362</v>
       </c>
       <c r="I3">
-        <v>0.6892241148056264</v>
+        <v>0.3503744070920869</v>
       </c>
       <c r="J3">
-        <v>0.6892241148056263</v>
+        <v>0.2893636473263989</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,60 +623,60 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4138836666666667</v>
+        <v>1.716416</v>
       </c>
       <c r="N3">
-        <v>1.241651</v>
+        <v>5.149248</v>
       </c>
       <c r="O3">
-        <v>0.8780627687259561</v>
+        <v>0.8311326085767012</v>
       </c>
       <c r="P3">
-        <v>0.8780627687259561</v>
+        <v>0.8311326085767011</v>
       </c>
       <c r="Q3">
-        <v>0.05139703945522223</v>
+        <v>0.177101519296</v>
       </c>
       <c r="R3">
-        <v>0.462573355097</v>
+        <v>1.062609115776</v>
       </c>
       <c r="S3">
-        <v>0.6051820345189246</v>
+        <v>0.2912075949449613</v>
       </c>
       <c r="T3">
-        <v>0.6051820345189245</v>
+        <v>0.2404995630296585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.05599466666666666</v>
+        <v>0.103181</v>
       </c>
       <c r="H4">
-        <v>0.167984</v>
+        <v>0.206362</v>
       </c>
       <c r="I4">
-        <v>0.3107758851943737</v>
+        <v>0.3503744070920869</v>
       </c>
       <c r="J4">
-        <v>0.3107758851943737</v>
+        <v>0.2893636473263989</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05747633333333333</v>
+        <v>0.02051333333333333</v>
       </c>
       <c r="N4">
-        <v>0.172429</v>
+        <v>0.06154</v>
       </c>
       <c r="O4">
-        <v>0.1219372312740439</v>
+        <v>0.009933081632854</v>
       </c>
       <c r="P4">
-        <v>0.1219372312740439</v>
+        <v>0.009933081632853998</v>
       </c>
       <c r="Q4">
-        <v>0.003218368126222222</v>
+        <v>0.002116586246666666</v>
       </c>
       <c r="R4">
-        <v>0.028965313136</v>
+        <v>0.01269951748</v>
       </c>
       <c r="S4">
-        <v>0.03789515098734206</v>
+        <v>0.003480297587708519</v>
       </c>
       <c r="T4">
-        <v>0.03789515098734206</v>
+        <v>0.002874272730473495</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +714,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05599466666666666</v>
+        <v>0.1241823333333333</v>
       </c>
       <c r="H5">
-        <v>0.167984</v>
+        <v>0.372547</v>
       </c>
       <c r="I5">
-        <v>0.3107758851943737</v>
+        <v>0.4216891812734765</v>
       </c>
       <c r="J5">
-        <v>0.3107758851943737</v>
+        <v>0.5223905502006568</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +747,338 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4138836666666667</v>
+        <v>0.3282236666666666</v>
       </c>
       <c r="N5">
-        <v>1.241651</v>
+        <v>0.984671</v>
       </c>
       <c r="O5">
-        <v>0.8780627687259561</v>
+        <v>0.1589343097904449</v>
       </c>
       <c r="P5">
-        <v>0.8780627687259561</v>
+        <v>0.1589343097904449</v>
       </c>
       <c r="Q5">
-        <v>0.02317527795377778</v>
+        <v>0.04075958078188888</v>
       </c>
       <c r="R5">
-        <v>0.208577501584</v>
+        <v>0.366836227037</v>
       </c>
       <c r="S5">
-        <v>0.2728807342070317</v>
+        <v>0.0670208789717978</v>
       </c>
       <c r="T5">
-        <v>0.2728807342070316</v>
+        <v>0.08302578153719214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1241823333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.372547</v>
+      </c>
+      <c r="I6">
+        <v>0.4216891812734765</v>
+      </c>
+      <c r="J6">
+        <v>0.5223905502006568</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.716416</v>
+      </c>
+      <c r="N6">
+        <v>5.149248</v>
+      </c>
+      <c r="O6">
+        <v>0.8311326085767012</v>
+      </c>
+      <c r="P6">
+        <v>0.8311326085767011</v>
+      </c>
+      <c r="Q6">
+        <v>0.2131485438506667</v>
+      </c>
+      <c r="R6">
+        <v>1.918336894656</v>
+      </c>
+      <c r="S6">
+        <v>0.3504796292403979</v>
+      </c>
+      <c r="T6">
+        <v>0.4341758206840901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1241823333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.372547</v>
+      </c>
+      <c r="I7">
+        <v>0.4216891812734765</v>
+      </c>
+      <c r="J7">
+        <v>0.5223905502006568</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.02051333333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.06154</v>
+      </c>
+      <c r="O7">
+        <v>0.009933081632854</v>
+      </c>
+      <c r="P7">
+        <v>0.009933081632853998</v>
+      </c>
+      <c r="Q7">
+        <v>0.002547393597777778</v>
+      </c>
+      <c r="R7">
+        <v>0.02292654238</v>
+      </c>
+      <c r="S7">
+        <v>0.00418867306128081</v>
+      </c>
+      <c r="T7">
+        <v>0.005188947979374639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.0671245</v>
+      </c>
+      <c r="H8">
+        <v>0.134249</v>
+      </c>
+      <c r="I8">
+        <v>0.2279364116344365</v>
+      </c>
+      <c r="J8">
+        <v>0.1882458024729443</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.3282236666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.984671</v>
+      </c>
+      <c r="O8">
+        <v>0.1589343097904449</v>
+      </c>
+      <c r="P8">
+        <v>0.1589343097904449</v>
+      </c>
+      <c r="Q8">
+        <v>0.02203184951316666</v>
+      </c>
+      <c r="R8">
+        <v>0.132191097079</v>
+      </c>
+      <c r="S8">
+        <v>0.03622691625922991</v>
+      </c>
+      <c r="T8">
+        <v>0.02991871668698583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.0671245</v>
+      </c>
+      <c r="H9">
+        <v>0.134249</v>
+      </c>
+      <c r="I9">
+        <v>0.2279364116344365</v>
+      </c>
+      <c r="J9">
+        <v>0.1882458024729443</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.716416</v>
+      </c>
+      <c r="N9">
+        <v>5.149248</v>
+      </c>
+      <c r="O9">
+        <v>0.8311326085767012</v>
+      </c>
+      <c r="P9">
+        <v>0.8311326085767011</v>
+      </c>
+      <c r="Q9">
+        <v>0.115213565792</v>
+      </c>
+      <c r="R9">
+        <v>0.691281394752</v>
+      </c>
+      <c r="S9">
+        <v>0.189445384391342</v>
+      </c>
+      <c r="T9">
+        <v>0.1564572248629526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.0671245</v>
+      </c>
+      <c r="H10">
+        <v>0.134249</v>
+      </c>
+      <c r="I10">
+        <v>0.2279364116344365</v>
+      </c>
+      <c r="J10">
+        <v>0.1882458024729443</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02051333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.06154</v>
+      </c>
+      <c r="O10">
+        <v>0.009933081632854</v>
+      </c>
+      <c r="P10">
+        <v>0.009933081632853998</v>
+      </c>
+      <c r="Q10">
+        <v>0.001376947243333333</v>
+      </c>
+      <c r="R10">
+        <v>0.00826168346</v>
+      </c>
+      <c r="S10">
+        <v>0.00226411098386467</v>
+      </c>
+      <c r="T10">
+        <v>0.001869860923005865</v>
       </c>
     </row>
   </sheetData>
